--- a/galaxyserver/galaxy后台状态码表.xlsx
+++ b/galaxyserver/galaxy后台状态码表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>status</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +147,70 @@
   </si>
   <si>
     <t>删除合作伙伴成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件上传失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请添加星河视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加视频失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取视频失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入修改视频的ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入修改视频的标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入修改的视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该视频不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请确认删除视频的ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取招聘信息失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请确认招聘信息部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请确认招聘岗位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请确认招聘地区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请确认招聘信息ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该招聘不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改招聘信息失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -780,123 +844,171 @@
       <c r="B36" s="1">
         <v>531</v>
       </c>
+      <c r="C36" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B37" s="1">
         <v>532</v>
       </c>
+      <c r="C37" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B38" s="1">
         <v>533</v>
       </c>
+      <c r="C38" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B39" s="1">
         <v>534</v>
       </c>
+      <c r="C39" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B40" s="1">
         <v>535</v>
       </c>
+      <c r="C40" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B41" s="1">
         <v>536</v>
       </c>
+      <c r="C41" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B42" s="1">
         <v>537</v>
       </c>
+      <c r="C42" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B43" s="1">
         <v>538</v>
       </c>
+      <c r="C43" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B44" s="1">
         <v>539</v>
       </c>
+      <c r="C44" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B45" s="1">
         <v>540</v>
       </c>
+      <c r="C45" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B46" s="1">
         <v>541</v>
       </c>
+      <c r="C46" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B47" s="1">
         <v>542</v>
       </c>
+      <c r="C47" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B48" s="1">
         <v>543</v>
       </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C48" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B49" s="1">
         <v>544</v>
       </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C49" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B50" s="1">
         <v>545</v>
       </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C50" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B51" s="1">
         <v>546</v>
       </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C51" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B52" s="1">
         <v>547</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B53" s="1">
         <v>548</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B54" s="1">
         <v>549</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B55" s="1">
         <v>550</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B56" s="1">
         <v>551</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B57" s="1">
         <v>552</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B58" s="1">
         <v>553</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B59" s="1">
         <v>554</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B60" s="1">
         <v>555</v>
       </c>
